--- a/story/主线剧情/main/level_spst_08-02.xlsx
+++ b/story/主线剧情/main/level_spst_08-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="272">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">切割，穿刺，劈砍，横扫，利刃在敌人之中飞舞。
 </t>
   </si>
@@ -555,6 +561,542 @@
   </si>
   <si>
     <t xml:space="preserve">どうやら、盾兵は何かを思い出しているようだった。そして、それ以上ロスモンティスには構わず、兜を被り直すと仲間のもとへと歩いて行った。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slice, pierce, cleave, sweep, the blades flutter in lockstep with the enemy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wail, rage, curse, howl, and then all tends towards the serene.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosmontis's expression holds not the slightest change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Dealt with.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] There's no front or ambush positions left. We can continue forward.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You do a pretty job, Feline. Settled it without any of us even taking a scratch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And you skewer their heads real fast, real precise, no hesitation. That's good form.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If only we didn't know you killed the Captain, I'd probably ask you to join us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You're a natural-born warrior. Shame you're with that Cautus, damn shame.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You can't say bad things about Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] No, I'm not criticizing her now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I'd been wanting to hear the things she said long, long ago, things I'd heard before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] She's great, Feline. A true great one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But this won't get you anywhere, Feline, it won't get you anywhere.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I don't believe you. Amiya will be able to do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Maybe. But you, with her, it's no good for either of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Why?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You're two kinds of people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] What two kinds of people? Me and Amiya get along really well. She's taught me a lot of things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] ...Heh, you'll figure in time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You're doing this on purpose... I don't want to know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] What you just said. I could join you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We welcome anyone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] As long as you feel the Infected's fate is unfair, as long as Ursus gets you burning mad, as long as you want to fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You can join us, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You thought our team only had Ursus in it? Thought it only kept this country's people? Think again, Feline.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...You're a Feline too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Born in Rim Billiton, went with my parents to Ursus, and settled down afterwards in this frigid place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I liked picking fights ever since I was young. Decided to join the army later because of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Ursus's assessments for joining the army are pretty harsh on Felines, but I still passed.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And after, I joined the Captain's unit, and went with him, fighting campaigns far and wide. That was ten years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Wars, following wars, and always a war after that. That's Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I used to feel proud of this country, kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Countless among us used to feel proud of this country.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] So, why...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Because my parents got Oripathy, got kicked out of the city, and died in the wilderness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And I only learned about it half a year after they'd kicked the bucket.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Countless among us have gone through something similar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I heard you went through something similar too, kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But it's not just that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If it was just that, just the one misfortune I ever happened across, I might even be able to understand it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But. That's not how it is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] War used to be the only thing that existed inside my head, and the only thing I ever reckoned to accomplish.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I started reflecting, thinking some things over, and only then did I start figuring something out about this country, trying to understand this country I used to struggle for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If the Captain weren't there, I'd have probably long been court-martialed for making disrespectful remarks at HQ.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] After that, I went to the Northern Plains with the Captain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] And the rest is history.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] In all of this, I've learned endurance, learned rage, learned hatred.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] ...Amiya told me not to learn these.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You'll learn them one way or the other, kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] If you can't use them, chances are they'll swallow you up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] So, was Patriot your family, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] We fought together for twenty years. He was my best brother, my closest brother-in-arms, and the one I most respected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] He was, kid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But I've still gotta say, you're all the more suited to join us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Then would Amiya be able to join you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] That Cautus? Nope, she wouldn't work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] She can't join us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Then I won't join you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Hah. I told you. You killed the Captain. There's no way you'd be able to join.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] I don’t care.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] But personally speaking, you need to pay a bit more attention to her. She wants to protect you, but she'll probably die faster than you will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Why are you that sure?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Because we've met someone like her before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Shieldguard looks like he’s thinking back to something. He pays no more attention to Rosmontis, puts on his helmet once again, and walks off to his comrades-in-arms.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">베고, 찌르고, 가르고, 쓸어버린다…… 예리한 칼날이 적들 사이를 날아다녔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">울음, 욕설, 저주, 비명…… 그 후 모든 것이 쥐 죽은 듯 고요해졌다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">로즈몬티스의 표정에는 아무런 변화도 없었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 처리했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 진지와 매복 포인트가 이제 없어졌으니까 계속 전진할 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 잘했다, 필라인. 덕분에 아군의 피해는 없었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 녀석들의 머리를 꿰뚫는 솜씨가 장난 아니더군. 속도, 정확성, 과감함까지…… 정말 뛰어난 솜씨였다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 대위님을 죽인 게 너라는 걸 몰랐다면 우리에게 합류하기를 바랐을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 넌 타고난 전사야, 그런 네가 카우투스 따위를 따른다니 정말 안타깝군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 아미야를 헐뜯는 거라면 가만두지 않겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 아니, 비난하려는 게 아니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 오랫동안 듣고 싶어 했던, 들어본 적 있었던 말을 덕분에 들을 수 있었거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 개인적으로는 대단하다고 생각한다, 필라인.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하지만 그게 다는 아니다, 필라인. 그것만으로는 통하지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 네 말은 믿지 않아, 아미야는 분명 해낼 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그럴지도, 하지만 네가 그렇게 따라다녀봤자 두 사람에게 좋을 리 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 어째서?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너흰 다른 부류거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 다른 부류? 난 아미야랑 엄청 친해, 나한테 많은 걸 가르쳐주기도 했다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] ……큭, 곧 알게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 괜한 수작 부리지 마…… 전혀 궁금하지 않으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그리고, 방금 나도 함께 할 수 있다 했지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그래.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우린 누구든지 환영한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 감염자의 운명이 불공평하다고 생각한다면, 우르수스에 분노해 싸우고 싶다면,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리와 함께 할 수 있을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리 부대에 우르수스인만, 이 나라 사람들만 있다고 생각하나? 꼭 그렇진 않아, 필라인.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……너도 필라인이구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 난 림 빌리턴에서 나고 자라, 부모님을 따라 우르수스에 왔다. 그리고 이 추운 땅에 뿌리를 내렸지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 어릴 때부터 싸우는 걸 좋아했던 나는 입대하기로 마음 먹었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우르수스의 입대 테스트는 필라인에게 가혹했지만, 난 그래도 해냈다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그렇게 대위님의 부대에 들어가, 그분을 따라 이곳저곳을 다니며 싸우다보니 벌써 십 년이나 지났더군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 전쟁, 또 전쟁, 그리고 또 다른 전쟁…… 이것이 우르수스다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 난 이 나라가 자랑스러웠단다, 꼬마야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리 중엔, 이 나라를 자랑스럽게 여겼던 사람들이 정말 많았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그런데, 왜……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 부모님께서는 광석병에 감염됐다며 도시에서 쫓겨났다가 황무지에서 숨을 거두셨지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 심지어 부모님께서 돌아가신 지 반년이 지나서야 난 그 사실을 알게 됐다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우리 중엔 이런 일을 겪은 사람이 수도 없이 많아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너도 비슷한 일을 겪었다고 들었다, 꼬마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하지만 그게 다가 아니었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그게 다였다면, 내가 그저 운이 없었던 거였다며 솔직히 그냥 넘어갔을지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하지만 현실은 그렇지 않았지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그동안 내 머릿속에는 전쟁뿐이었다, 내가 반드시 해야 할 일이라고 생각했었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하지만 그 일을 계기로 나는 세상에 눈을 뜨며 이 나라, 한때 내가 몸 바쳐 싸우던 이 나라를 이해하기 시작했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 대위님이 아니었다면 사령부에서 불손한 발언을 했다는 이유로 군사 법정에 서야 했을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그러다 난 대위님을 따라 북툰드라로 향했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그리고 지금까지 버텨왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그 시간 동안 나는 인내와 분노, 증오를 배웠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] ……아미야가 그런 건 배우지 말라고 했는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 너도 언젠가는 배우게 될 거다, 꼬마야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 네가 그것들을 내버려 뒀다간 네가 그것들에게 잡아먹힐 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그러니까 패트리어트는 네 가족인 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 우린 20년을 함께 싸웠다, 그분은 나의 가장 친한 형제이자 전우이며, 가장 존경하는 사람이기도 하지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그분은 내 가족이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 다시 한번 말하지만 넌 우리와 함께 있는 편이 더 어울려.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그럼 아미야도 함께 할 수 있어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 카우투스 말인가? 아니, 그건 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 카우투스는 우리와 함께할 수 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 그럼 나도 안 들어갈래.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 하아…… 내가 말했잖아. 대위님을 죽였기 때문에 너는 우리 부대에 못 들어간다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 어쨌든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 그래도 충고 하나 하지, 카우투스를 조심하는 게 좋을 거다. 카우투스는 널 지키려나 본데 너보다 먼저 죽을지도 모르거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로즈몬티스"] 어떻게 그렇게 확신하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 예전에 그런 사람을 만난 적이 있었거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방패병은 무언가를 떠올린 듯한 표정을 짓더니 로즈몬티스를 무시한 채 투구를 쓰곤 동료들을 향해 걸어갔다.
 </t>
   </si>
 </sst>
@@ -913,554 +1455,962 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D39" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>202</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>203</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
       <c r="B68" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
